--- a/sssom-mappings/tables/sex_sssom.xlsx
+++ b/sssom-mappings/tables/sex_sssom.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangshuxin/PycharmProjects/concept-based-mapping/sssom/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangshuxin/PycharmProjects/concept-based-mapping/sssom-mappings/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63485363-02E1-674B-B416-CB8D7D9D9CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF6650C-E733-674F-8EE8-485B1A9106FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9880" yWindow="500" windowWidth="28520" windowHeight="21440" xr2:uid="{A7ED2088-67B6-4343-9C05-083258E1C6E2}"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="33560" windowHeight="18640" xr2:uid="{A7ED2088-67B6-4343-9C05-083258E1C6E2}"/>
   </bookViews>
   <sheets>
     <sheet name="sex" sheetId="1" r:id="rId1"/>
@@ -506,7 +506,7 @@
     <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B26" sqref="B26"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
